--- a/media/products.xlsx
+++ b/media/products.xlsx
@@ -605,7 +605,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
